--- a/27_小文字を大文字に変換/ansR.xlsx
+++ b/27_小文字を大文字に変換/ansR.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigemura/sigemura/DOC/よく使うもの/20_GitHub/TecExercise/27_小文字を大文字に変換/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B353C28B-7A18-234B-81D8-BACF406A4778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25280ABC-4D1D-834D-AB94-54ABAC89C747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12880" yWindow="500" windowWidth="16460" windowHeight="15500" xr2:uid="{AE2B6758-9489-D245-8F41-AE0447B25FDC}"/>
   </bookViews>
@@ -103,13 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>氏名：</t>
-    <rPh sb="0" eb="2">
-      <t xml:space="preserve">シメイ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.27</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -357,12 +350,34 @@
     <t>1C</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>氏名：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>模範解答</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">シメイ </t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>モハンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -377,6 +392,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1000,7 +1022,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1023,16 +1045,16 @@
         <v>7</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -1042,7 +1064,7 @@
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -1075,39 +1097,39 @@
         <v>#VALUE!</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="14"/>
       <c r="C6" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="14"/>
       <c r="C7" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -1117,235 +1139,235 @@
     <row r="8" spans="2:7">
       <c r="B8" s="14"/>
       <c r="C8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="E8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="F8" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="14"/>
       <c r="C9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="14"/>
       <c r="C10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="14"/>
       <c r="C11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="14"/>
       <c r="C12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="14"/>
       <c r="C13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="14"/>
       <c r="C14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="14"/>
       <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="14"/>
       <c r="C16" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>49</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="14"/>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="14"/>
       <c r="C18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="14"/>
       <c r="C19" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="14"/>
       <c r="C20" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="B21" s="14"/>
       <c r="C21" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="B22" s="14"/>
       <c r="C22" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1444,15 +1466,15 @@
     <row r="34" spans="2:7" ht="20" customHeight="1">
       <c r="B34" s="14"/>
       <c r="C34" s="16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" s="17"/>
       <c r="E34" s="18"/>
       <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="35" spans="2:7">
@@ -1461,10 +1483,10 @@
       <c r="D35" s="20"/>
       <c r="E35" s="21"/>
       <c r="F35" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="2:7">
